--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3138122.09392297</v>
+        <v>3135870.014211764</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.78083674902027</v>
+        <v>93.52676208877436</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>103.5078235545809</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>114.3606976213218</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021059958</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>94.81275980261485</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>181.8528900316688</v>
+        <v>148.4348925031067</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>256.4217010493341</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316074</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>88.89700561060579</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386317</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701338</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.79977260571659</v>
+        <v>21.90286287505377</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
-        <v>41.33703994143007</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695457</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>126.9927435506633</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450753</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2424.744041450753</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4404,7 +4404,7 @@
         <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>729.201121645011</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C4" t="n">
-        <v>729.201121645011</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>729.201121645011</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596504</v>
@@ -4513,25 +4513,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>729.201121645011</v>
+        <v>805.3711496350312</v>
       </c>
       <c r="T4" t="n">
-        <v>729.201121645011</v>
+        <v>583.6045342045572</v>
       </c>
       <c r="U4" t="n">
-        <v>729.201121645011</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="V4" t="n">
-        <v>729.201121645011</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W4" t="n">
-        <v>729.201121645011</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X4" t="n">
-        <v>729.201121645011</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y4" t="n">
-        <v>729.201121645011</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>547.3108956025778</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,16 +4565,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4604,13 +4604,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>1976.204921733553</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>647.3667606649364</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>647.3667606649364</v>
+        <v>770.9527709665616</v>
       </c>
       <c r="T7" t="n">
-        <v>647.3667606649364</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="U7" t="n">
-        <v>647.3667606649364</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V7" t="n">
-        <v>647.3667606649364</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>647.3667606649364</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>647.3667606649364</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>647.3667606649364</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473101</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490658</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,7 +4820,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,16 +4884,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218342</v>
@@ -4960,52 +4960,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>156.3070715944115</v>
       </c>
     </row>
     <row r="11">
@@ -5018,61 +5018,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,22 +5270,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,31 +5294,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703114</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424045</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5507,28 +5507,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.355259300789</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,16 +5753,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,25 +6361,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,13 +6780,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>194.8007783998286</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4949402405073</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
-        <v>107.2784330767823</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>13.30196929556061</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>720891.9298890511</v>
+        <v>720891.929889051</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312479</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.2747287552</v>
-      </c>
       <c r="H2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="I2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="L2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.6400068797</v>
       </c>
       <c r="H4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="I4" t="n">
-        <v>15436.64000687968</v>
-      </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.6400068797</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811863.88176179</v>
+        <v>-811863.8817617899</v>
       </c>
       <c r="C6" t="n">
+        <v>516880.8639658022</v>
+      </c>
+      <c r="D6" t="n">
         <v>516880.8639658019</v>
       </c>
-      <c r="D6" t="n">
-        <v>516880.8639658026</v>
-      </c>
       <c r="E6" t="n">
-        <v>264281.6430906132</v>
+        <v>264246.9051651779</v>
       </c>
       <c r="F6" t="n">
-        <v>589694.1048979687</v>
+        <v>589659.3669725334</v>
       </c>
       <c r="G6" t="n">
-        <v>589694.1048979685</v>
+        <v>589659.3669725331</v>
       </c>
       <c r="H6" t="n">
-        <v>589694.1048979689</v>
+        <v>589659.3669725328</v>
       </c>
       <c r="I6" t="n">
-        <v>589694.1048979686</v>
+        <v>589659.3669725332</v>
       </c>
       <c r="J6" t="n">
-        <v>372162.9025006912</v>
+        <v>372128.1645752558</v>
       </c>
       <c r="K6" t="n">
-        <v>589694.1048979686</v>
+        <v>589659.3669725329</v>
       </c>
       <c r="L6" t="n">
-        <v>589694.1048979687</v>
+        <v>589659.3669725332</v>
       </c>
       <c r="M6" t="n">
-        <v>504639.0769624567</v>
+        <v>504604.339037021</v>
       </c>
       <c r="N6" t="n">
-        <v>589694.1048979686</v>
+        <v>589659.3669725331</v>
       </c>
       <c r="O6" t="n">
-        <v>589694.1048979687</v>
+        <v>589659.3669725333</v>
       </c>
       <c r="P6" t="n">
-        <v>589694.1048979688</v>
+        <v>589659.3669725331</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26796,10 +26796,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303.9530049144603</v>
+        <v>289.2070795747062</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>42.92613909198829</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>75.40832771012009</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616622</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>274.9183408758542</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>7.916135299773117</v>
+        <v>41.33413282833521</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>150.4543446923773</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>90.93497457133151</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,10 +28065,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.3663749167642e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.10924786597401e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28612,13 +28612,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>346.9084613860373</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,31 +32546,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32713,7 +32713,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M23" t="n">
         <v>965.6463440175675</v>
@@ -32792,7 +32792,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33190,7 +33190,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33415,10 +33415,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33737,19 +33737,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>212.934053971707</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36440,7 +36440,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
